--- a/biology/Histoire de la zoologie et de la botanique/Gilbert_Percy_Whitley/Gilbert_Percy_Whitley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gilbert_Percy_Whitley/Gilbert_Percy_Whitley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Percy Whitley est un ichtyologiste australien, né le 9 juin 1903 et mort le 18 juillet 1975.
 Il est conservateur des poissons à l’Australian Museum de 1922 à 1964. Il fait paraître 550 publications dont environ 300 sont consacrées aux poissons. Il est l’auteur d’environ 320 espèces.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1935 : Ichthyological genotypes. Aust. Zool., v. 8 (pt. 2) : 136–139.
 1950 : New fish names. Proc. R. Zool. Soc. N.S.W. for 1948–49 : 44.</t>
